--- a/WorkBot/refactor/data/orders/Keck's Food Service/CompletedOrders/Keck's Food Service_Bakery_2025-08-03.xlsx
+++ b/WorkBot/refactor/data/orders/Keck's Food Service/CompletedOrders/Keck's Food Service_Bakery_2025-08-03.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,249 +475,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>124440</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>8 Grain</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>68.52</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>205.56</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>108900</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Seeds - Poppy</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>103.12</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>103.12</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>146200</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Sugar - Donut</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>97.76</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>97.76</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>123060</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Glaze - Donut</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>49.39</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>49.39</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>108970</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Garlic - Dry Minced</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>156.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>156.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>460860</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Donut - Devil Food (2oz)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>59.69</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>119.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4100860</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Boston Coffee Cake - Cinnamon Walnut</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>57.91</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>115.82</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4100870</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Boston Coffee Cake - Blueberry</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>57.91</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>231.64</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4100760</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Boston Coffee Cake - Apple Cinnamon</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>55.80</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>111.60</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
